--- a/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_12_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_12_7.xlsx
@@ -518,276 +518,276 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_0</t>
+          <t>model_12_7_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9831622535765243</v>
+        <v>0.9899302253583607</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8565067739024979</v>
+        <v>0.7312375133894529</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9955648626623775</v>
+        <v>0.9830788208685213</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998045003907667</v>
+        <v>0.9365222912978141</v>
       </c>
       <c r="F2" t="n">
-        <v>0.997890563337605</v>
+        <v>0.9820198956453375</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1125940878644755</v>
+        <v>0.06733662939569068</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9595398636395489</v>
+        <v>1.797215985502188</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05069182739825236</v>
+        <v>0.1202767734941131</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002449115241873006</v>
+        <v>0.1486168152648168</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02657046974494564</v>
+        <v>0.1344464587465987</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1651248806742887</v>
+        <v>0.2592052293506374</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3355504252187373</v>
+        <v>0.2594930237900254</v>
       </c>
       <c r="N2" t="n">
-        <v>1.003232847313307</v>
+        <v>1.009666983655974</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3498355015054365</v>
+        <v>0.2705401790373785</v>
       </c>
       <c r="P2" t="n">
-        <v>302.3679321405982</v>
+        <v>103.396101840052</v>
       </c>
       <c r="Q2" t="n">
-        <v>483.9804300459601</v>
+        <v>163.1210172585938</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_1</t>
+          <t>model_12_7_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9860142366004373</v>
+        <v>0.9899013441213224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8562570733226145</v>
+        <v>0.7312362987635607</v>
       </c>
       <c r="D3" t="n">
-        <v>0.995699368165472</v>
+        <v>0.9837501177771667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9993091856632207</v>
+        <v>0.9409520843808837</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9977052780640373</v>
+        <v>0.9830324156218163</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09352286425139507</v>
+        <v>0.06752975836075206</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9612096125669951</v>
+        <v>1.797224107711122</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04915448385555306</v>
+        <v>0.1155051541169363</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008654155003919285</v>
+        <v>0.1382455880458787</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02890432353789311</v>
+        <v>0.1268753277585598</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1552817533318208</v>
+        <v>0.261543626801216</v>
       </c>
       <c r="M3" t="n">
-        <v>0.305815081791914</v>
+        <v>0.259864884816614</v>
       </c>
       <c r="N3" t="n">
-        <v>1.002685266572716</v>
+        <v>1.00969470964353</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3188342629482868</v>
+        <v>0.2709278709577275</v>
       </c>
       <c r="P3" t="n">
-        <v>302.7390986702677</v>
+        <v>103.3903738273043</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.3515965756295</v>
+        <v>163.1152892458462</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_2</t>
+          <t>model_12_7_9</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9881208462306783</v>
+        <v>0.9899225785501473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8555926525826523</v>
+        <v>0.7312002111619583</v>
       </c>
       <c r="D4" t="n">
-        <v>0.995403784849931</v>
+        <v>0.98240153435079</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9986041606045745</v>
+        <v>0.932136037563286</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9972205777832126</v>
+        <v>0.9810112629994329</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07943595595392772</v>
+        <v>0.06738776363742416</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9656525971144986</v>
+        <v>1.797465425669205</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05253288169818608</v>
+        <v>0.1250909673780501</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01748633438169274</v>
+        <v>0.1588861062379253</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03500960954937144</v>
+        <v>0.1419885221708819</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1465128918021613</v>
+        <v>0.257049352323212</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2818438503035461</v>
+        <v>0.2595915322914524</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00228079752371</v>
+        <v>1.009674324591859</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2938425265081691</v>
+        <v>0.270642881249652</v>
       </c>
       <c r="P4" t="n">
-        <v>303.0656083349308</v>
+        <v>103.3945836519039</v>
       </c>
       <c r="Q4" t="n">
-        <v>484.6781062402927</v>
+        <v>163.1194990704457</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_3</t>
+          <t>model_12_7_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9896456237567486</v>
+        <v>0.9898302473804453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8546388949039887</v>
+        <v>0.7311902080873529</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9947977303350299</v>
+        <v>0.9844114526922738</v>
       </c>
       <c r="E5" t="n">
-        <v>0.997766030781388</v>
+        <v>0.9454067280595571</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9965288265654264</v>
+        <v>0.984044140278246</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06923976161614062</v>
+        <v>0.06800518259436694</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9720303791033721</v>
+        <v>1.797532316275151</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05945983987886858</v>
+        <v>0.1108043451975322</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02798597953538062</v>
+        <v>0.1278161795149251</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04372290970712459</v>
+        <v>0.1193101437862918</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1385406436559305</v>
+        <v>0.2640840352031681</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2631344933986052</v>
+        <v>0.2607780331898508</v>
       </c>
       <c r="N5" t="n">
-        <v>1.001988040238704</v>
+        <v>1.009762962514772</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2743366735460769</v>
+        <v>0.2718798939476907</v>
       </c>
       <c r="P5" t="n">
-        <v>303.3403599830868</v>
+        <v>103.3763427241743</v>
       </c>
       <c r="Q5" t="n">
-        <v>484.9528578884487</v>
+        <v>163.1012581427162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_4</t>
+          <t>model_12_7_10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9907186098101168</v>
+        <v>0.9898835079487578</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8534926409082435</v>
+        <v>0.7311301397338099</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9939755081349658</v>
+        <v>0.981721521648044</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9968516572474962</v>
+        <v>0.9278079876221713</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9957010856569685</v>
+        <v>0.9800104856371757</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06206469893662064</v>
+        <v>0.06764902892881942</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9796953848509347</v>
+        <v>1.797933993631882</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06885750734118209</v>
+        <v>0.1299245391513756</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03944076539097477</v>
+        <v>0.1690191279191787</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05414913636607843</v>
+        <v>0.1494718476118902</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1313156499523248</v>
+        <v>0.2550591134387922</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2491278766750535</v>
+        <v>0.2600942693117621</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001782026916457</v>
+        <v>1.009711832369192</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2597337661509098</v>
+        <v>0.2711670208257254</v>
       </c>
       <c r="P6" t="n">
-        <v>303.5591558136029</v>
+        <v>103.3868445576191</v>
       </c>
       <c r="Q6" t="n">
-        <v>485.1716537189648</v>
+        <v>163.1117599761609</v>
       </c>
     </row>
     <row r="7">
@@ -797,822 +797,822 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9914429427132169</v>
+        <v>0.9897105558626074</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8522280915340176</v>
+        <v>0.7310922272372715</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9930107020588756</v>
+        <v>0.985058915693805</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9959026874377794</v>
+        <v>0.9498648282163747</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9947914491834027</v>
+        <v>0.9850497814944056</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0572210814783447</v>
+        <v>0.06880556032527819</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9881514323390973</v>
+        <v>1.798187514670805</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07988485088409066</v>
+        <v>0.106202138686042</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05132895501022534</v>
+        <v>0.1173786785246757</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06560691977842173</v>
+        <v>0.1117904488159334</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1247644836419273</v>
+        <v>0.2668609843108657</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2392092838464776</v>
+        <v>0.2623081400286278</v>
       </c>
       <c r="N7" t="n">
-        <v>1.001642954999062</v>
+        <v>1.009877866371897</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2493929182913038</v>
+        <v>0.2734751406023522</v>
       </c>
       <c r="P7" t="n">
-        <v>303.7216657823665</v>
+        <v>103.3529414372542</v>
       </c>
       <c r="Q7" t="n">
-        <v>485.3341636877283</v>
+        <v>163.0778568557961</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_6</t>
+          <t>model_12_7_11</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.991900095522831</v>
+        <v>0.9898176188563509</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8509015221448388</v>
+        <v>0.7310322653951876</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9919597522627017</v>
+        <v>0.9810419549248329</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9949491469486529</v>
+        <v>0.9235522737692021</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9938404608973603</v>
+        <v>0.9790212607600658</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05416409853545987</v>
+        <v>0.06808962959313551</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9970222079528258</v>
+        <v>1.798588479784919</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09189678233432086</v>
+        <v>0.1347549408749619</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06327440367286749</v>
+        <v>0.1789827931559622</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07758557072942709</v>
+        <v>0.1568687891984378</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1188321809019721</v>
+        <v>0.2532116089229769</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2327318167665519</v>
+        <v>0.2609398965147636</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001555181659616</v>
+        <v>1.009775085897903</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2426396920275803</v>
+        <v>0.2720486481294482</v>
       </c>
       <c r="P8" t="n">
-        <v>303.8314739573149</v>
+        <v>103.3738607189238</v>
       </c>
       <c r="Q8" t="n">
-        <v>485.4439718626768</v>
+        <v>163.0987761374656</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_7</t>
+          <t>model_12_7_4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9921544571982516</v>
+        <v>0.9895352217261513</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8495551100860423</v>
+        <v>0.7309344039006583</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9908658726750595</v>
+        <v>0.9856885590520491</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9940124041594646</v>
+        <v>0.9543013065652348</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9928783439536129</v>
+        <v>0.9860435960332239</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0524631808406944</v>
+        <v>0.06997802050309997</v>
       </c>
       <c r="H9" t="n">
-        <v>1.006025671589656</v>
+        <v>1.799242880049448</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1043993839518291</v>
+        <v>0.1017265952860719</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07500941967475647</v>
+        <v>0.1069917994661977</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08970439828214373</v>
+        <v>0.1043591879756506</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1134622614463353</v>
+        <v>0.2699046018964653</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2290484246632017</v>
+        <v>0.264533590500526</v>
       </c>
       <c r="N9" t="n">
-        <v>1.001506344217936</v>
+        <v>1.010046187142895</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2387994902967177</v>
+        <v>0.2757953331081567</v>
       </c>
       <c r="P9" t="n">
-        <v>303.8952873454854</v>
+        <v>103.3191481581034</v>
       </c>
       <c r="Q9" t="n">
-        <v>485.5077852508472</v>
+        <v>163.0440635766452</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_8</t>
+          <t>model_12_7_12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9922566034170635</v>
+        <v>0.9897290559547922</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8482199263779115</v>
+        <v>0.7309111360791782</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9897613174104122</v>
+        <v>0.9803660746365188</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9931071161505262</v>
+        <v>0.9193795074399249</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9919270264886368</v>
+        <v>0.9780467936041088</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05178012860515935</v>
+        <v>0.06868185012365334</v>
       </c>
       <c r="H10" t="n">
-        <v>1.014954051193882</v>
+        <v>1.799398472078823</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1170240042431488</v>
+        <v>0.1395591391944192</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08635038690057895</v>
+        <v>0.188752257986694</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1016871955718639</v>
+        <v>0.1641553797375698</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1086100028541434</v>
+        <v>0.2514889671921339</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2275524743991138</v>
+        <v>0.2620722231058709</v>
       </c>
       <c r="N10" t="n">
-        <v>1.001486732143924</v>
+        <v>1.009860106283399</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2372398543328436</v>
+        <v>0.2732291802077781</v>
       </c>
       <c r="P10" t="n">
-        <v>303.9214976419556</v>
+        <v>103.3565406099962</v>
       </c>
       <c r="Q10" t="n">
-        <v>485.5339955473174</v>
+        <v>163.081456028538</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_9</t>
+          <t>model_12_7_13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9922461967966376</v>
+        <v>0.9896214135315107</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8469183509954696</v>
+        <v>0.7307707538787394</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9886699187162047</v>
+        <v>0.9796963230452358</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9922430799666604</v>
+        <v>0.9152982200798188</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9910021921196825</v>
+        <v>0.9770895047702179</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05184971772386494</v>
+        <v>0.06940165550378453</v>
       </c>
       <c r="H11" t="n">
-        <v>1.023657691769475</v>
+        <v>1.800337208499559</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1294982502513</v>
+        <v>0.1443197743615169</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09717457317764795</v>
+        <v>0.1983075482144059</v>
       </c>
       <c r="K11" t="n">
-        <v>0.113336411714474</v>
+        <v>0.1713135191552043</v>
       </c>
       <c r="L11" t="n">
-        <v>0.104223012585273</v>
+        <v>0.2498708635822721</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2277053309078752</v>
+        <v>0.2634419395308661</v>
       </c>
       <c r="N11" t="n">
-        <v>1.001488730215045</v>
+        <v>1.00996344300975</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2373992182596396</v>
+        <v>0.2746572082966894</v>
       </c>
       <c r="P11" t="n">
-        <v>303.9188115768255</v>
+        <v>103.335689114465</v>
       </c>
       <c r="Q11" t="n">
-        <v>485.5313094821873</v>
+        <v>163.0606045330068</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_10</t>
+          <t>model_12_7_3</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9921541865222625</v>
+        <v>0.989296411358254</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8456660384027245</v>
+        <v>0.7307080078996178</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9876088596329734</v>
+        <v>0.9862958513517772</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9914262048987877</v>
+        <v>0.9586882046915607</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9901145761228751</v>
+        <v>0.9870190330881214</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05246499085227981</v>
+        <v>0.07157494653284979</v>
       </c>
       <c r="H12" t="n">
-        <v>1.032031911843531</v>
+        <v>1.800756791150864</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1416257267671324</v>
+        <v>0.09740992457349537</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1074079500487271</v>
+        <v>0.09672099981455107</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1245168251436804</v>
+        <v>0.09706534500486841</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1002572616807718</v>
+        <v>0.2732497351823379</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2290523757839674</v>
+        <v>0.2675349445079087</v>
       </c>
       <c r="N12" t="n">
-        <v>1.001506396187726</v>
+        <v>1.010275445096076</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2388036096248743</v>
+        <v>0.278924460969293</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8952183454616</v>
+        <v>103.2740203500139</v>
       </c>
       <c r="Q12" t="n">
-        <v>485.5077162508235</v>
+        <v>162.9989357685558</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_11</t>
+          <t>model_12_7_14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9920045931000643</v>
+        <v>0.989497981014329</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8444735110282573</v>
+        <v>0.730614579141841</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9865899217640143</v>
+        <v>0.9790350656944837</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9906599022805629</v>
+        <v>0.9113164776677973</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9892712159186993</v>
+        <v>0.9761518196574953</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05346532275533358</v>
+        <v>0.07022704931453362</v>
       </c>
       <c r="H13" t="n">
-        <v>1.040006347887676</v>
+        <v>1.801381549684316</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1532717748262686</v>
+        <v>0.149020031948753</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1170077821381216</v>
+        <v>0.2076297794130107</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1351397924925569</v>
+        <v>0.1783250714987402</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09667409560912649</v>
+        <v>0.2483554838483582</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2312256965722746</v>
+        <v>0.2650038666029868</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001535118124788</v>
+        <v>1.010081938226244</v>
       </c>
       <c r="O13" t="n">
-        <v>0.241069453178534</v>
+        <v>0.276285629837905</v>
       </c>
       <c r="P13" t="n">
-        <v>303.857444016065</v>
+        <v>103.3120434485908</v>
       </c>
       <c r="Q13" t="n">
-        <v>485.4699419214268</v>
+        <v>163.0369588671326</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_12</t>
+          <t>model_12_7_15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9918160217376385</v>
+        <v>0.9893615686222971</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8433472356713698</v>
+        <v>0.7304456638384335</v>
       </c>
       <c r="D14" t="n">
-        <v>0.985621135295964</v>
+        <v>0.9783844141074857</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9899453729761951</v>
+        <v>0.9074384344489624</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9884763615690054</v>
+        <v>0.975235474178258</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05472630032416657</v>
+        <v>0.07113923960817192</v>
       </c>
       <c r="H14" t="n">
-        <v>1.047537756385204</v>
+        <v>1.802511087095986</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1643446126406878</v>
+        <v>0.1536449031202521</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1259590256569966</v>
+        <v>0.2167092254803939</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1451517799708631</v>
+        <v>0.1851770564617737</v>
       </c>
       <c r="L14" t="n">
-        <v>0.09344461759565434</v>
+        <v>0.2469279479497009</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2339365305465706</v>
+        <v>0.2667194023841759</v>
       </c>
       <c r="N14" t="n">
-        <v>1.001571323826373</v>
+        <v>1.010212894122595</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2438956929673158</v>
+        <v>0.2780741995289479</v>
       </c>
       <c r="P14" t="n">
-        <v>303.8108217495852</v>
+        <v>103.2862324023735</v>
       </c>
       <c r="Q14" t="n">
-        <v>485.4233196549471</v>
+        <v>163.0111478209153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_13</t>
+          <t>model_12_7_2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9916027192396466</v>
+        <v>0.9889855903336948</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8422906537689696</v>
+        <v>0.730403381801684</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9847073141937283</v>
+        <v>0.9868765591161088</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9892824974969218</v>
+        <v>0.9629934020027968</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9877321220000478</v>
+        <v>0.9879689901843604</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05615265511040599</v>
+        <v>0.07365340815527555</v>
       </c>
       <c r="H15" t="n">
-        <v>1.054603124431666</v>
+        <v>1.802793827270421</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1747892185369843</v>
+        <v>0.09328221836022954</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1342631774970895</v>
+        <v>0.08664148171971257</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1545262235379573</v>
+        <v>0.08996202874867447</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09217480888644033</v>
+        <v>0.2769282957994201</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2369655146016103</v>
+        <v>0.2713916140105946</v>
       </c>
       <c r="N15" t="n">
-        <v>1.001612277905988</v>
+        <v>1.010573833279653</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2470536271444398</v>
+        <v>0.2829453168771146</v>
       </c>
       <c r="P15" t="n">
-        <v>303.7593626257776</v>
+        <v>103.2167697242469</v>
       </c>
       <c r="Q15" t="n">
-        <v>485.3718605311395</v>
+        <v>162.9416851427887</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_14</t>
+          <t>model_12_7_16</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9913755206365291</v>
+        <v>0.9892147487850453</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8413049981573104</v>
+        <v>0.7302667403527131</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9838509247733565</v>
+        <v>0.9777460564958192</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9886701128631719</v>
+        <v>0.9036693448018754</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9870390556340262</v>
+        <v>0.9743420210120813</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05767193321560579</v>
+        <v>0.07212102453591732</v>
       </c>
       <c r="H16" t="n">
-        <v>1.061194208045359</v>
+        <v>1.803707549268865</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1845774035194235</v>
+        <v>0.1581823879651359</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1419348068486152</v>
+        <v>0.2255335846333948</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1632560893063405</v>
+        <v>0.1918578638630524</v>
       </c>
       <c r="L16" t="n">
-        <v>0.09120101735063388</v>
+        <v>0.2455743732130696</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2401498141069566</v>
+        <v>0.2685535785200363</v>
       </c>
       <c r="N16" t="n">
-        <v>1.001655900037786</v>
+        <v>1.010353841166356</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2503734888721373</v>
+        <v>0.27998646034018</v>
       </c>
       <c r="P16" t="n">
-        <v>303.7059692997686</v>
+        <v>103.2588193495181</v>
       </c>
       <c r="Q16" t="n">
-        <v>485.3184672051305</v>
+        <v>162.9837347680599</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_15</t>
+          <t>model_12_7_17</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9911425341471435</v>
+        <v>0.9890597700087894</v>
       </c>
       <c r="C17" t="n">
-        <v>0.840389785561827</v>
+        <v>0.7300802195957765</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9830526443570422</v>
+        <v>0.9771216095517099</v>
       </c>
       <c r="E17" t="n">
-        <v>0.988106262265853</v>
+        <v>0.9000120207490987</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9863964837201564</v>
+        <v>0.9734726833271493</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0592299149429319</v>
+        <v>0.07315736832635221</v>
       </c>
       <c r="H17" t="n">
-        <v>1.067314238885523</v>
+        <v>1.804954814429349</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1937014260690615</v>
+        <v>0.1626209949364435</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1489984275762913</v>
+        <v>0.2340962732405907</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1713499268226764</v>
+        <v>0.1983583474469398</v>
       </c>
       <c r="L17" t="n">
-        <v>0.09032093139759004</v>
+        <v>0.2442908479377022</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2433719682768168</v>
+        <v>0.2704761880949083</v>
       </c>
       <c r="N17" t="n">
-        <v>1.001700633443748</v>
+        <v>1.010502620791562</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2537328168157872</v>
+        <v>0.2819909193850047</v>
       </c>
       <c r="P17" t="n">
-        <v>303.6526570894827</v>
+        <v>103.2302848551776</v>
       </c>
       <c r="Q17" t="n">
-        <v>485.2651549948446</v>
+        <v>162.9552002737194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_16</t>
+          <t>model_12_7_1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9909098378550003</v>
+        <v>0.9885932253324248</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8395432902366597</v>
+        <v>0.7300098889837641</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9823119712144303</v>
+        <v>0.9874260198446593</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9875886873117352</v>
+        <v>0.9671812080122997</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9858030587019939</v>
+        <v>0.9888857532403511</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06078595611996083</v>
+        <v>0.07627715472544311</v>
       </c>
       <c r="H18" t="n">
-        <v>1.072974757022669</v>
+        <v>1.805425115555719</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2021670207610926</v>
+        <v>0.08937661798343161</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1554823316306913</v>
+        <v>0.0768368053253715</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1788247099114842</v>
+        <v>0.08310692135016273</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08952778660754217</v>
+        <v>0.2809851241971799</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2465480807468613</v>
+        <v>0.2761831905193419</v>
       </c>
       <c r="N18" t="n">
-        <v>1.00174531113184</v>
+        <v>1.010950503680872</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2570441429691407</v>
+        <v>0.2879408807177701</v>
       </c>
       <c r="P18" t="n">
-        <v>303.6007930031204</v>
+        <v>103.1467635986924</v>
       </c>
       <c r="Q18" t="n">
-        <v>485.2132909084822</v>
+        <v>162.8716790172342</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_17</t>
+          <t>model_12_7_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9906817504290584</v>
+        <v>0.9888985276394987</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8387629797211288</v>
+        <v>0.7298880881144951</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9816272190637771</v>
+        <v>0.976512266442488</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9871147644312728</v>
+        <v>0.8964683388294802</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9852567185513417</v>
+        <v>0.9726282235050675</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06231117778748059</v>
+        <v>0.07423559679225236</v>
       </c>
       <c r="H19" t="n">
-        <v>1.078192697033024</v>
+        <v>1.806239598529362</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2099934611143685</v>
+        <v>0.1669522429280059</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1614193856972702</v>
+        <v>0.242392897866348</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1857064118853523</v>
+        <v>0.2046728064952961</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08880789634291013</v>
+        <v>0.2430691977668497</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2496220699126593</v>
+        <v>0.2724621015705714</v>
       </c>
       <c r="N19" t="n">
-        <v>1.001789103917621</v>
+        <v>1.010657413466081</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2602489982177616</v>
+        <v>0.2840613773087344</v>
       </c>
       <c r="P19" t="n">
-        <v>303.5512289010854</v>
+        <v>103.2010230054246</v>
       </c>
       <c r="Q19" t="n">
-        <v>485.1637268064472</v>
+        <v>162.9259384239664</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_18</t>
+          <t>model_12_7_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.990461446660539</v>
+        <v>0.9887327530514799</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8380457663173593</v>
+        <v>0.729692132589348</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9809964473721012</v>
+        <v>0.9759189943974772</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9866817288797131</v>
+        <v>0.8930388284571493</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9847551972247879</v>
+        <v>0.9718093883218434</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06378435010197504</v>
+        <v>0.07534413222565546</v>
       </c>
       <c r="H20" t="n">
-        <v>1.082988706366494</v>
+        <v>1.807549954028314</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2172029266366422</v>
+        <v>0.1711692568147871</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1668442250294666</v>
+        <v>0.2504222190229247</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1920235758330544</v>
+        <v>0.2107956569810365</v>
       </c>
       <c r="L20" t="n">
-        <v>0.08815320299300547</v>
+        <v>0.2419056810468847</v>
       </c>
       <c r="M20" t="n">
-        <v>0.252555637636492</v>
+        <v>0.2744888562868363</v>
       </c>
       <c r="N20" t="n">
-        <v>1.001831402241177</v>
+        <v>1.010816557070579</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2633074539929201</v>
+        <v>0.2861744151692314</v>
       </c>
       <c r="P20" t="n">
-        <v>303.5044948298574</v>
+        <v>103.1713784610463</v>
       </c>
       <c r="Q20" t="n">
-        <v>485.1169927352193</v>
+        <v>162.8962938795881</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_19</t>
+          <t>model_12_7_0</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9902509585156395</v>
+        <v>0.9881088283791747</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8373881999519419</v>
+        <v>0.7295159540109147</v>
       </c>
       <c r="D21" t="n">
-        <v>0.980416853250994</v>
+        <v>0.9879392505133148</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9862867423146188</v>
+        <v>0.9712116157231824</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9842958175012931</v>
+        <v>0.9897606988015448</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06519188529612706</v>
+        <v>0.07951631938226969</v>
       </c>
       <c r="H21" t="n">
-        <v>1.087385855679855</v>
+        <v>1.808728060993524</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2238274532096926</v>
+        <v>0.08572854308247618</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1717924068734164</v>
+        <v>0.06740063677964839</v>
       </c>
       <c r="K21" t="n">
-        <v>0.197809924037841</v>
+        <v>0.07656450480028069</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08756212722201993</v>
+        <v>0.2854605267350957</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2553270163851195</v>
+        <v>0.2819863815546235</v>
       </c>
       <c r="N21" t="n">
-        <v>1.001871815964997</v>
+        <v>1.011415524755992</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2661968160724216</v>
+        <v>0.2939911256096852</v>
       </c>
       <c r="P21" t="n">
-        <v>303.460840552887</v>
+        <v>103.0635860062785</v>
       </c>
       <c r="Q21" t="n">
-        <v>485.0733384582489</v>
+        <v>162.7885014248203</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9900516358810447</v>
+        <v>0.9885639569910464</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8367865847463458</v>
+        <v>0.7294939627900014</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9798855660667407</v>
+        <v>0.9753427788701662</v>
       </c>
       <c r="E22" t="n">
-        <v>0.985927055486962</v>
+        <v>0.8897247803286533</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9838759089412953</v>
+        <v>0.9710166906932743</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06652475667145871</v>
+        <v>0.07647287225900933</v>
       </c>
       <c r="H22" t="n">
-        <v>1.09140885932986</v>
+        <v>1.808875116389031</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2298998510167726</v>
+        <v>0.1752650319332743</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1762983723603547</v>
+        <v>0.2581812148745573</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2030990933634559</v>
+        <v>0.2167230635697689</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08703057659128176</v>
+        <v>0.2407984921144899</v>
       </c>
       <c r="M22" t="n">
-        <v>0.257923935825</v>
+        <v>0.2765372890931878</v>
       </c>
       <c r="N22" t="n">
-        <v>1.001910085910839</v>
+        <v>1.010978601288596</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2689042917492221</v>
+        <v>0.2883100540009897</v>
       </c>
       <c r="P22" t="n">
-        <v>303.4203622396516</v>
+        <v>103.1416384240647</v>
       </c>
       <c r="Q22" t="n">
-        <v>485.0328601450135</v>
+        <v>162.8665538426065</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9898642832067812</v>
+        <v>0.9883934234458389</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8362371941945134</v>
+        <v>0.7292948609112178</v>
       </c>
       <c r="D23" t="n">
-        <v>0.979399745265865</v>
+        <v>0.9747841603823695</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9855999082416296</v>
+        <v>0.8865255516498061</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9834928072843341</v>
+        <v>0.9702503491538355</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06777758486693884</v>
+        <v>0.0776132308610463</v>
       </c>
       <c r="H23" t="n">
-        <v>1.095082636479674</v>
+        <v>1.810206511569238</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2354525864361607</v>
+        <v>0.1792357262214373</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1803966992471581</v>
+        <v>0.2656713903593849</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2079246428416595</v>
+        <v>0.2224533921671817</v>
       </c>
       <c r="L23" t="n">
-        <v>0.08655036418886861</v>
+        <v>0.2397377717840483</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2603412853677627</v>
+        <v>0.2785915125430893</v>
       </c>
       <c r="N23" t="n">
-        <v>1.001946057624298</v>
+        <v>1.011142313491995</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2714245528666236</v>
+        <v>0.2904517299959823</v>
       </c>
       <c r="P23" t="n">
-        <v>303.3830474907611</v>
+        <v>103.1120347310798</v>
       </c>
       <c r="Q23" t="n">
-        <v>484.995545396123</v>
+        <v>162.8369501496216</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9896892120046619</v>
+        <v>0.9882222375643497</v>
       </c>
       <c r="C24" t="n">
-        <v>0.835736287512289</v>
+        <v>0.729095974222589</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9789561743178918</v>
+        <v>0.9742434833848072</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9853028223681868</v>
+        <v>0.8834402847316722</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9831438247172222</v>
+        <v>0.9695103572909221</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06894828680163925</v>
+        <v>0.07875795163880278</v>
       </c>
       <c r="H24" t="n">
-        <v>1.098432201770171</v>
+        <v>1.811536467771887</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2405224231112954</v>
+        <v>0.1830788913025461</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1841184332375607</v>
+        <v>0.272894753536625</v>
       </c>
       <c r="K24" t="n">
-        <v>0.212320428174428</v>
+        <v>0.2279866907236052</v>
       </c>
       <c r="L24" t="n">
-        <v>0.08611500327421164</v>
+        <v>0.2387256342599972</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2625800578902351</v>
+        <v>0.280638471416167</v>
       </c>
       <c r="N24" t="n">
-        <v>1.001979671295105</v>
+        <v>1.011306651938224</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2737586345702758</v>
+        <v>0.2925858321460759</v>
       </c>
       <c r="P24" t="n">
-        <v>303.3487970440366</v>
+        <v>103.0827520663654</v>
       </c>
       <c r="Q24" t="n">
-        <v>484.9612949493985</v>
+        <v>162.8076674849072</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9895263955290452</v>
+        <v>0.9880513168930346</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8352802720915647</v>
+        <v>0.7288982603547922</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9785518422198799</v>
+        <v>0.9737208299992766</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9850331877630384</v>
+        <v>0.8804678292874083</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9828262947332104</v>
+        <v>0.9687966073668837</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07003704132378917</v>
+        <v>0.07990089895490401</v>
       </c>
       <c r="H25" t="n">
-        <v>1.101481578988312</v>
+        <v>1.812858581316233</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2451437755889581</v>
+        <v>0.1867939434498545</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1874962723227386</v>
+        <v>0.2798539975086411</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2163200366877837</v>
+        <v>0.2333237648486911</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08572132982850107</v>
+        <v>0.2377556869816072</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2646451233705038</v>
+        <v>0.2826674706344967</v>
       </c>
       <c r="N25" t="n">
-        <v>1.002010932058423</v>
+        <v>1.011470735782687</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2759116141633143</v>
+        <v>0.2947012100617373</v>
       </c>
       <c r="P25" t="n">
-        <v>303.3174620302422</v>
+        <v>103.0539363505463</v>
       </c>
       <c r="Q25" t="n">
-        <v>484.929959935604</v>
+        <v>162.7788517690881</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9893756472562621</v>
+        <v>0.9878815737414858</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8348656662241325</v>
+        <v>0.7287025537477243</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9781838479824443</v>
+        <v>0.9732166847811446</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9847887793413026</v>
+        <v>0.8776067924579424</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9825377992313767</v>
+        <v>0.9681090560418895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0710450957180212</v>
+        <v>0.08103597219090687</v>
       </c>
       <c r="H26" t="n">
-        <v>1.104254050332916</v>
+        <v>1.814167272298842</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2493498010054425</v>
+        <v>0.1903774384142558</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1905580911839772</v>
+        <v>0.2865523832986109</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2199539267872945</v>
+        <v>0.2384649386165749</v>
       </c>
       <c r="L26" t="n">
-        <v>0.08537191710649818</v>
+        <v>0.2368220846216933</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2665428590640184</v>
+        <v>0.2846681790978873</v>
       </c>
       <c r="N26" t="n">
-        <v>1.002039875726798</v>
+        <v>1.011633689208174</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2778901403941563</v>
+        <v>0.296787092826452</v>
       </c>
       <c r="P26" t="n">
-        <v>303.2888809052116</v>
+        <v>103.0257242435422</v>
       </c>
       <c r="Q26" t="n">
-        <v>484.9013788105734</v>
+        <v>162.750639662084</v>
       </c>
     </row>
   </sheetData>
